--- a/biology/Biochimie/Ligase/Ligase.xlsx
+++ b/biology/Biochimie/Ligase/Ligase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, une ligase est une enzyme qui catalyse la jonction de deux molécules (en anglais ligation) par de nouvelles liaisons covalentes avec hydrolyse concomitante de l'ATP ou d'autres molécules similaires. Elle forme des liaisons phosphodiesters de l'extrémité 3' hydroxylée à l'extrémité 5' phosphorylée.
 </t>
@@ -511,7 +523,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom courant des enzymes de type ligase inclut souvent le terme « ligase » comme l'ADN ligase du phage T4 utilisée pour structurer des fragments d'ADN. D'autres noms courants utilisent le mot « synthétase » car ces enzymes catalysent la synthèse de nouvelles molécules.
 Attention cependant à ne pas confondre les enzymes synthétases avec les enzymes synthases (qui sont toutes deux des enzymes du groupe des ligases). Les synthases, contrairement aux synthétases, n'utilisent pas l'énergie libérée par la déphosphorylation des nucléotides triphosphatées (comme l'ATP, la GTP, la CTP, la TTP et l'UTP) pour catalyser sa réaction. En fait, la synthase forme et défait les doubles liaisons d'une protéine...[réf. nécessaire]
@@ -543,11 +557,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ligases sont classées  EC 6 dans la nomenclature EC des enzymes. Cette classe peut ensuite être divisée en six sous-classes :
-EC 6.1 : regroupe les ligases qui forment des liaisons carbone-oxygène
-EC 6.1.1.1 tyrosine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ligase</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligase</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC 6.1 : regroupe les ligases qui forment des liaisons carbone-oxygène</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC 6.1.1.1 tyrosine
 ARNt ligase
 EC 6.1.1.2 tryptophane
 ARNt ligase
@@ -595,8 +646,43 @@
 EC 6.1.1.26 pyrrolysine
 ARNt Pyl ligase
 EC 6.1.1.27 O-phosphoserine ARNt ligase
-EC 6.2 : regroupe les ligases qui forment des liaisons carbone-soufre
-EC 6.2.1.1 acetate—CoA ligase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ligase</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligase</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC 6.2 : regroupe les ligases qui forment des liaisons carbone-soufre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC 6.2.1.1 acetate—CoA ligase
 EC 6.2.1.2 butyrate—CoA ligase
 EC 6.2.1.3 acide a long chaine —CoA ligase
 EC 6.2.1.4 succinate—CoA ligase (GDP-formation)
@@ -641,8 +727,43 @@
 EC 6.2.1.39 [butirosin acyl-carrier protein]—L-glutamate
 ligase
 EC 6.2.1.40 4-hydroxybutyrate—CoA ligase
-EC 6.3 : regroupe les ligases qui forment des liaisons carbone-azote
-EC 6.3.1.1 aspartate—ammoniaque ligase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ligase</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligase</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC 6.3 : regroupe les ligases qui forment des liaisons carbone-azote</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC 6.3.1.1 aspartate—ammoniaque ligase
 EC 6.3.1.2 glutamate—ammoniaque ligase
 EC 6.3.1.3 maintenant EC 6.3.4.13
 EC 6.3.1.4 aspartate—ammoniaque ligase (ADP-formation)
@@ -784,8 +905,43 @@
 EC 6.3.5.9 hydrogenobyrinic acid a,c-diamide synthase
 (glutamine-hydrolyse)
 EC 6.3.5.10 adenosylcobyric acid synthase (glutamine-hydrolysing) EC 6.3.5.11 cobyrinate a,c-diamide synthase
-EC 6.4 : regroupe les ligases qui forment des liaisons carbone-carbone
-EC 6.4.1.1 pyruvate carboxylase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ligase</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligase</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC 6.4 : regroupe les ligases qui forment des liaisons carbone-carbone</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC 6.4.1.1 pyruvate carboxylase
 EC 6.4.1.2 acetyl-CoA carboxylase
 EC 6.4.1.3 propionyl-CoA carboxylase
 EC 6.4.1.4 methylcrotonoyl-CoA carboxylase
@@ -793,14 +949,84 @@
 EC 6.4.1.6 acetone carboxylase
 EC 6.4.1.7 2-oxoglutarate carboxylase
 EC 6.4.1.8 acetophenone carboxylase
-EC 6.5 : regroupe les ligases qui forment des liaisons ester phosphorique
-EC 6.5.1.1 ADN ligase (ATP)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ligase</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligase</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EC 6.5 : regroupe les ligases qui forment des liaisons ester phosphorique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC 6.5.1.1 ADN ligase (ATP)
 EC 6.5.1.2 ADN ligase (NAD+)
 EC 6.5.1.3 ARN ligase (ATP)
 EC 6.5.1.4 ARN 3'-terminal-phosphate cyclase (ATP)
 EC 6.5.1.5 ARN 3'-terminal-phosphate cyclase (GTP)
-EC 6.6 : regroupe les ligases qui forment des liaisons azote-métal
-EC 6.6.1.1 magnésium chélatase
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ligase</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligase</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EC 6.6 : regroupe les ligases qui forment des liaisons azote-métal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC 6.6.1.1 magnésium chélatase
 EC 6.6.1.2 cobaltochélatase
 Sur les autres projets Wikimedia :
 Ligase, sur Wikimedia Commonsligase, sur le Wiktionnaire
